--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/mapemptystrings/MapEmptyStringlValueTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/mapemptystrings/MapEmptyStringlValueTest.xlsx
@@ -596,9 +596,6 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" t="s">
